--- a/xlsx/生育控制_intext.xlsx
+++ b/xlsx/生育控制_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1099">
   <si>
     <t>生育控制</t>
   </si>
@@ -29,7 +29,7 @@
     <t>维基百科</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_生育控制</t>
+    <t>政策_政策_混合动力车辆_生育控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MeSH</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E5%AD%95</t>
   </si>
   <si>
-    <t>懷孕</t>
+    <t>怀孕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%94%9F%E8%82%B2</t>
   </si>
   <si>
-    <t>計劃生育</t>
+    <t>计划生育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%93%E7%B2%BE%E7%AE%A1%E5%88%87%E9%99%A4%E6%9C%AF</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E8%82%B2</t>
   </si>
   <si>
-    <t>絕育</t>
+    <t>绝育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E5%AE%AE%E9%81%BF%E5%AD%95%E5%99%A8</t>
   </si>
   <si>
-    <t>子宮避孕器</t>
+    <t>子宫避孕器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/implantable_birth_control</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%9A%AA%E5%A5%97</t>
   </si>
   <si>
-    <t>保險套</t>
+    <t>保险套</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BF%E5%AD%95%E6%B5%B7%E7%BB%B5</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>安全性行為</t>
+    <t>安全性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%82%B3%E6%9F%93%E7%96%BE%E7%97%85</t>
   </si>
   <si>
-    <t>性傳染疾病</t>
+    <t>性传染疾病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E6%80%A5%E9%81%BF%E5%AD%95</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E6%BD%94%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>純潔教育</t>
+    <t>纯洁教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E6%88%90%E5%B9%B4%E6%87%B7%E5%AD%95</t>
   </si>
   <si>
-    <t>未成年懷孕</t>
+    <t>未成年怀孕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%95%99%E8%82%B2</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%99%BC%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>開發中國家</t>
+    <t>开发中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%95%E4%BA%A7%E5%A6%87%E6%AD%BB%E4%BA%A1</t>
@@ -221,25 +221,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>資產</t>
+    <t>资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%98%E9%AB%94%E9%87%8D%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>身高體重指數</t>
+    <t>身高体重指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>勞動力</t>
+    <t>劳动力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%88%90%E9%95%B7</t>
   </si>
   <si>
-    <t>經濟成長</t>
+    <t>经济成长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%95%E9%85%AE</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E7%97%9B</t>
   </si>
   <si>
-    <t>頭痛</t>
+    <t>头痛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E5%AD%90</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E5%AE%AE%E7%92%B0</t>
   </si>
   <si>
-    <t>子宮環</t>
+    <t>子宫环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%BA%E4%B9%B3</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%AE%E8%83%8E</t>
   </si>
   <si>
-    <t>墮胎</t>
+    <t>堕胎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E5%AE%AE%E5%A4%96%E5%AD%95</t>
   </si>
   <si>
-    <t>子宮外孕</t>
+    <t>子宫外孕</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sperm_extraction</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E5%A4%96%E4%BA%BA%E5%B7%A5%E5%8F%97%E7%B2%BE</t>
   </si>
   <si>
-    <t>體外人工受精</t>
+    <t>体外人工受精</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CycleBeads</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%8F%92%E5%85%A5%E5%BC%8F%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>非插入式性行為</t>
+    <t>非插入式性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E4%BA%A4</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E9%96%93%E6%80%A7%E4%BA%A4</t>
   </si>
   <si>
-    <t>股間性交</t>
+    <t>股间性交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%9B%E4%BA%A4</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%8C%E4%B9%B3%E5%81%9C%E7%B6%93%E6%B3%95</t>
   </si>
   <si>
-    <t>泌乳停經法</t>
+    <t>泌乳停经法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E4%B9%B3%E5%93%BA%E8%82%B2</t>
@@ -389,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%B6%93</t>
   </si>
   <si>
-    <t>月經</t>
+    <t>月经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界衛生組織</t>
+    <t>世界卫生组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B6%E5%98%B4</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E7%B6%ADA%E9%85%B8</t>
   </si>
   <si>
-    <t>異維A酸</t>
+    <t>异维A酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E5%A4%A9%E7%95%B8%E5%BD%A2</t>
@@ -473,19 +473,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E7%94%A2</t>
   </si>
   <si>
-    <t>早產</t>
+    <t>早产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%8E%E5%85%92</t>
   </si>
   <si>
-    <t>胎兒</t>
+    <t>胎儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E7%94%A2</t>
   </si>
   <si>
-    <t>死產</t>
+    <t>死产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北京大學</t>
+    <t>北京大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E9%81%A9</t>
   </si>
   <si>
-    <t>胡適</t>
+    <t>胡适</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E7%8E%87</t>
@@ -527,13 +527,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%9D%91</t>
   </si>
   <si>
-    <t>農村</t>
+    <t>农村</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
   </si>
   <si>
-    <t>北歐</t>
+    <t>北欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%8D%B0%E5%BA%A6</t>
@@ -605,9 +605,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%8E%E5%84%BF</t>
   </si>
   <si>
-    <t>胎儿</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%BB%8F%E5%A4%B1%E8%B0%83</t>
   </si>
   <si>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%8E%E5%8A%9F%E8%83%BD</t>
   </si>
   <si>
-    <t>腎功能</t>
+    <t>肾功能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%AD%95%E7%97%87</t>
@@ -707,13 +704,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E6%83%85%E7%B4%A0</t>
   </si>
   <si>
-    <t>動情素</t>
+    <t>动情素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%AB%94%E7%B4%A0</t>
   </si>
   <si>
-    <t>黃體素</t>
+    <t>黄体素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E5%B0%84</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%99%B3%E4%BB%A3%E8%AC%9D</t>
   </si>
   <si>
-    <t>新陳代謝</t>
+    <t>新陈代谢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%AD%95</t>
@@ -737,13 +734,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E8%A1%93</t>
   </si>
   <si>
-    <t>手術</t>
+    <t>手术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%A0%E5%9B%8A</t>
   </si>
   <si>
-    <t>膠囊</t>
+    <t>胶囊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%A1%80%E7%AE%A1%E7%96%BE%E7%97%85</t>
@@ -767,13 +764,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E5%AE%AE</t>
   </si>
   <si>
-    <t>子宮</t>
+    <t>子宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%B8%AB</t>
   </si>
   <si>
-    <t>醫師</t>
+    <t>医师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/RU-486</t>
@@ -785,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E6%B5%81%E7%94%A2</t>
   </si>
   <si>
-    <t>人工流產</t>
+    <t>人工流产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -797,13 +794,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>天主教會</t>
+    <t>天主教会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Natural_family_planning</t>
@@ -827,19 +824,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>猶太教</t>
+    <t>犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E6%AD%A3%E7%B5%B1%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教正統派</t>
+    <t>犹太教正统派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E6%94%B9%E9%9D%A9%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教改革派</t>
+    <t>犹太教改革派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%95%99</t>
@@ -857,13 +854,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%98%AD%E7%B6%93</t>
   </si>
   <si>
-    <t>古蘭經</t>
+    <t>古兰经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E6%AE%96</t>
@@ -953,13 +950,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E7%94%B2%E5%9F%BA%E4%BA%9E%E7%A2%B8</t>
   </si>
   <si>
-    <t>二甲基亞碸</t>
+    <t>二甲基亚砜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%B8%E7%B2%BE%E7%AE%A1</t>
   </si>
   <si>
-    <t>輸精管</t>
+    <t>输精管</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Vas-occlusive_contraception</t>
@@ -1001,13 +998,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E6%94%B6%E5%AE%B9%E6%89%80</t>
   </si>
   <si>
-    <t>動物收容所</t>
+    <t>动物收容所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%B9%E5%89%B2</t>
   </si>
   <si>
-    <t>閹割</t>
+    <t>阉割</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/overpopulation_in_wild_animals</t>
@@ -1049,19 +1046,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E5%88%92%E7%94%9F%E8%82%B2</t>
   </si>
   <si>
-    <t>计划生育</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%95%E8%83%8E</t>
   </si>
   <si>
-    <t>堕胎</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%95%E6%8D%89%E3%80%81%E7%B5%95%E8%82%B2%E3%80%81%E9%87%8B%E6%94%BE</t>
   </si>
   <si>
-    <t>捕捉、絕育、釋放</t>
+    <t>捕捉、绝育、释放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Sustainability</t>
@@ -1073,19 +1064,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E6%80%A7</t>
   </si>
   <si>
-    <t>可持續性</t>
+    <t>可持续性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E7%94%9F%E6%B4%BB</t>
   </si>
   <si>
-    <t>綠色生活</t>
+    <t>绿色生活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%8B%E5%96%84</t>
   </si>
   <si>
-    <t>環境友善</t>
+    <t>环境友善</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -1097,19 +1088,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>環境倫理</t>
+    <t>环境伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84%E7%92%B0%E5%A2%83%E8%88%87%E7%99%BC%E5%B1%95%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>里約環境與發展宣言</t>
+    <t>里约环境与发展宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%8F%BE%E4%BB%A3%E5%8C%96</t>
   </si>
   <si>
-    <t>生態現代化</t>
+    <t>生态现代化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BB%AD%E5%8F%91%E5%B1%95</t>
@@ -1127,43 +1118,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%A4%9A</t>
   </si>
   <si>
-    <t>人口過多</t>
+    <t>人口过多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>消費</t>
+    <t>消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B6%88%E8%B2%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反消費主義</t>
+    <t>反消费主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E8%B6%B3%E8%B7%A1</t>
   </si>
   <si>
-    <t>生態足跡</t>
+    <t>生态足迹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%AF%E7%9F%A5%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>良知消費</t>
+    <t>良知消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%BA%A6%E6%B6%88%E8%80%97</t>
   </si>
   <si>
-    <t>過度消耗</t>
+    <t>过度消耗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%B0%E6%82%B2%E5%8A%87</t>
   </si>
   <si>
-    <t>公地悲劇</t>
+    <t>公地悲剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%82%E7%94%A8%E6%8A%80%E6%9C%AF</t>
@@ -1175,13 +1166,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%A7%E9%A3%9F%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>糧食安全</t>
+    <t>粮食安全</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Local_food</t>
@@ -1193,13 +1184,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B8%E9%96%80</t>
   </si>
   <si>
-    <t>樸門</t>
+    <t>朴门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>永續農業</t>
+    <t>永续农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sustainable_fishery</t>
@@ -1217,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>水危機</t>
+    <t>水危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E6%B0%B4%E6%95%88%E7%8E%87</t>
@@ -1229,19 +1220,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E7%94%A8%E6%B0%B4</t>
   </si>
   <si>
-    <t>節約用水</t>
+    <t>节约用水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>生質燃料</t>
+    <t>生质燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E8%B6%B3%E8%B7%A1</t>
   </si>
   <si>
-    <t>碳足跡</t>
+    <t>碳足迹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E6%B1%A1%E4%BA%A4%E6%98%93</t>
@@ -1253,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>節約能源</t>
+    <t>节约能源</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Energy_descent</t>
@@ -1277,19 +1268,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>可持續能源</t>
+    <t>可持续能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽能</t>
+    <t>太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
+    <t>风能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E8%83%BD</t>
@@ -1307,13 +1298,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業生態學</t>
+    <t>工业生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%9B%9E%E6%94%B6</t>
   </si>
   <si>
-    <t>資源回收</t>
+    <t>资源回收</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE</t>
@@ -1325,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>生物多樣性</t>
+    <t>生物多样性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%88</t>
@@ -1337,25 +1328,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>保育生物學</t>
+    <t>保育生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%80%95%E5%8D%B1%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>瀕危物種</t>
+    <t>濒危物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%96%B0%E4%B8%96%E6%BB%85%E7%B5%95%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>全新世滅絕事件</t>
+    <t>全新世灭绝事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>入侵物種</t>
+    <t>入侵物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E7%BB%B4%E6%8C%81%E4%BA%A7%E9%87%8F</t>
@@ -1373,19 +1364,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>永續運輸</t>
+    <t>永续运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%8C%96%E5%AD%A6</t>
@@ -1397,7 +1388,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>環境設計</t>
+    <t>环境设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -1415,7 +1406,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%B2</t>
   </si>
   <si>
-    <t>環境史</t>
+    <t>环境史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B3%95</t>
@@ -1427,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境科學</t>
+    <t>环境科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E7%8E%AF%E5%A2%83%E5%AE%A3%E8%A8%80</t>
@@ -1439,25 +1430,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%80%AB%E7%89%B9%E8%98%AD%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>布倫特蘭委員會</t>
+    <t>布伦特兰委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E9%AB%98%E5%B3%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>地球高峰會</t>
+    <t>地球高峰会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/21%E4%B8%96%E7%B4%80%E8%AD%B0%E7%A8%8B</t>
   </si>
   <si>
-    <t>21世紀議程</t>
+    <t>21世纪议程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>生物多樣性公約</t>
+    <t>生物多样性公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%AE%AA%E7%AB%A0</t>
@@ -1469,7 +1460,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E5%B9%B4%E7%94%9F%E6%85%8B%E7%B3%BB%E7%B5%B1%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>千禧年生態系統評估</t>
+    <t>千禧年生态系统评估</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E6%98%86%E5%AE%A3%E8%A8%80</t>
@@ -1481,19 +1472,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E6%80%A7%E7%B6%B1%E8%A6%81</t>
   </si>
   <si>
-    <t>人類性綱要</t>
+    <t>人类性纲要</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5</t>
   </si>
   <si>
-    <t>性別</t>
+    <t>性别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7</t>
@@ -1511,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E6%80%A7%E4%BA%BA</t>
   </si>
   <si>
-    <t>雙性人</t>
+    <t>双性人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%B5%B7</t>
@@ -1565,7 +1556,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%96%9A%E8%B5%B7</t>
   </si>
   <si>
-    <t>性喚起</t>
+    <t>性唤起</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%AB%98%E6%BD%AE</t>
@@ -1583,19 +1574,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E9%81%93%E5%88%86%E6%B3%8C%E6%B6%B2</t>
   </si>
   <si>
-    <t>陰道分泌液</t>
+    <t>阴道分泌液</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E4%BB%BD_(%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8)</t>
   </si>
   <si>
-    <t>身份 (社會心理學)</t>
+    <t>身份 (社会心理学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E8%BA%AB%E4%BB%BD</t>
@@ -1613,25 +1604,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E8%AA%8D%E5%90%8C</t>
   </si>
   <si>
-    <t>性別認同</t>
+    <t>性别认同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E4%BA%8C%E5%85%83</t>
   </si>
   <si>
-    <t>性別二元</t>
+    <t>性别二元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%B0%A3%E8%B3%AA</t>
   </si>
   <si>
-    <t>性別氣質</t>
+    <t>性别气质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E8%A7%92%E8%89%B2</t>
   </si>
   <si>
-    <t>性別角色</t>
+    <t>性别角色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7</t>
@@ -1649,7 +1640,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>性學</t>
+    <t>性学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%88%90%E7%86%9F</t>
@@ -1661,7 +1652,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%94%E6%84%8F%E8%B1%A1</t>
   </si>
   <si>
-    <t>身體意象</t>
+    <t>身体意象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BF%E5%AD%95%E5%A5%97</t>
@@ -1679,19 +1670,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%AE%96%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>生殖醫學</t>
+    <t>生殖医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E7%94%A2%E7%A7%91</t>
   </si>
   <si>
-    <t>婦產科</t>
+    <t>妇产科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>男科學</t>
+    <t>男科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%8C%E5%B0%BF%E5%A4%96%E7%A7%91</t>
@@ -1703,7 +1694,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>性醫學</t>
+    <t>性医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%8A%9F%E8%83%BD%E9%9A%9C%E7%A2%8D</t>
@@ -1721,7 +1712,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%85%BE%E4%BA%A2%E9%80%B2</t>
   </si>
   <si>
-    <t>性慾亢進</t>
+    <t>性慾亢进</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%B5%B7%E5%8A%9F%E8%83%BD%E9%9A%9C%E7%A2%8D</t>
@@ -1751,13 +1742,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%BC%B7%E8%BF%AB%E7%97%87</t>
   </si>
   <si>
-    <t>性強迫症</t>
+    <t>性强迫症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%AB%E6%84%9B%E5%A6%84%E6%83%B3%E7%97%87</t>
   </si>
   <si>
-    <t>被愛妄想症</t>
+    <t>被爱妄想症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E7%8A%AF%E7%BD%AA</t>
@@ -1769,7 +1760,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%90%88%E6%B3%95%E6%80%A7%E4%BA%A4%E5%B9%B4%E9%BD%A1</t>
   </si>
   <si>
-    <t>最低合法性交年齡</t>
+    <t>最低合法性交年龄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%92%AD%E8%89%BE%E6%BB%8B%E7%97%85%E7%BD%AA</t>
@@ -1793,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%A8%B7%E6%93%BE</t>
   </si>
   <si>
-    <t>性騷擾</t>
+    <t>性骚扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E8%99%90%E5%BE%85</t>
@@ -1871,7 +1862,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%AF%86%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>親密關係</t>
+    <t>亲密关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E5%85%B3%E7%B3%BB</t>
@@ -1883,7 +1874,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>三角關係</t>
+    <t>三角关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E5%AE%B6%E5%BA%AD</t>
@@ -1901,31 +1892,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>性倫理</t>
+    <t>性伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%B4%BE%E5%B0%8D</t>
   </si>
   <si>
-    <t>性派對</t>
+    <t>性派对</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B</t>
   </si>
   <si>
-    <t>愛</t>
+    <t>爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%83%85</t>
   </si>
   <si>
-    <t>愛情</t>
+    <t>爱情</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E6%83%85</t>
   </si>
   <si>
-    <t>調情</t>
+    <t>调情</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%A4%9C%E6%83%85</t>
@@ -1937,7 +1928,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%82%8A%E6%88%80</t>
   </si>
   <si>
-    <t>多邊戀</t>
+    <t>多边恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AA%E6%BC%AB</t>
@@ -1949,13 +1940,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%AB%E4%BA%A4</t>
   </si>
   <si>
-    <t>濫交</t>
+    <t>滥交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%85%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>禁慾主義</t>
+    <t>禁慾主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E7%A6%81%E6%85%BE</t>
@@ -1973,13 +1964,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E5%89%8D%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>婚前性行為</t>
+    <t>婚前性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%B4%E5%8A%A9%E4%BA%A4%E9%9A%9B</t>
   </si>
   <si>
-    <t>援助交際</t>
+    <t>援助交际</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sexual_capital</t>
@@ -2003,7 +1994,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>性活動</t>
+    <t>性活动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%85%B0</t>
@@ -2027,7 +2018,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E6%88%B2</t>
   </si>
   <si>
-    <t>前戲</t>
+    <t>前戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E6%88%8F</t>
@@ -2063,7 +2054,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%92%E5%85%A5%E5%BC%8F%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>插入式性行為</t>
+    <t>插入式性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E4%BA%A4</t>
@@ -2093,13 +2084,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%90%E9%99%B0</t>
   </si>
   <si>
-    <t>舐陰</t>
+    <t>舐阴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%82%E9%99%BD</t>
   </si>
   <si>
-    <t>咂陽</t>
+    <t>咂阳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/69%E5%BC%8F</t>
@@ -2135,13 +2126,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E9%99%B0%E6%91%A9%E6%93%A6</t>
   </si>
   <si>
-    <t>女陰摩擦</t>
+    <t>女阴摩擦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E8%8E%96%E6%91%A9%E6%93%A6</t>
   </si>
   <si>
-    <t>陰莖摩擦</t>
+    <t>阴茎摩擦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9F%E5%AE%98%E6%8C%89%E6%91%A9</t>
@@ -2153,13 +2144,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E9%A0%AD%E6%84%9B%E6%92%AB</t>
   </si>
   <si>
-    <t>乳頭愛撫</t>
+    <t>乳头爱抚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%9C%9F%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>經期性行為</t>
+    <t>经期性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AB%E5%BA%8A</t>
@@ -2171,13 +2162,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%92%AB</t>
   </si>
   <si>
-    <t>愛撫</t>
+    <t>爱抚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E6%B5%81%E8%A9%B1</t>
   </si>
   <si>
-    <t>下流話</t>
+    <t>下流话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E4%BD%93%E4%BD%8D</t>
@@ -2189,13 +2180,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8F%E5%B0%84</t>
   </si>
   <si>
-    <t>顏射</t>
+    <t>颜射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%80%E7%89%A9</t>
   </si>
   <si>
-    <t>戀物</t>
+    <t>恋物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BDSM</t>
@@ -2207,7 +2198,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1%E6%80%A7%E6%84%9B</t>
   </si>
   <si>
-    <t>傳統性愛</t>
+    <t>传统性爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E4%BF%83%E6%80%A7%E7%88%B1</t>
@@ -2225,25 +2216,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%A5%97%E6%80%A7%E4%BA%A4</t>
   </si>
   <si>
-    <t>無套性交</t>
+    <t>无套性交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E6%80%A7%E4%BA%A4</t>
   </si>
   <si>
-    <t>虛擬性交</t>
+    <t>虚拟性交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E6%80%A7%E4%BA%A4</t>
   </si>
   <si>
-    <t>網絡性交</t>
+    <t>网络性交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A9%B1%E6%80%A7%E4%BA%A4</t>
   </si>
   <si>
-    <t>電話性交</t>
+    <t>电话性交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%AB%98%E6%BD%AE%E6%8E%A7%E5%88%B6</t>
@@ -2261,19 +2252,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%81%8F%E9%9B%A2</t>
   </si>
   <si>
-    <t>性偏離</t>
+    <t>性偏离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%8F%9B%E9%85%8D%E5%81%B6</t>
   </si>
   <si>
-    <t>交換配偶</t>
+    <t>交换配偶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>性產業</t>
+    <t>性产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E8%89%B2</t>
@@ -2291,7 +2282,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85%E6%BC%94%E5%93%A1</t>
   </si>
   <si>
-    <t>色情演員</t>
+    <t>色情演员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E8%89%B2%E6%83%85</t>
@@ -2315,7 +2306,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%84%9B%E5%A8%83%E5%A8%83</t>
   </si>
   <si>
-    <t>性愛娃娃</t>
+    <t>性爱娃娃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%95%86%E5%BA%97</t>
@@ -2327,13 +2318,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>性旅遊</t>
+    <t>性旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E8%89%B2%E6%83%85%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>兒童色情旅遊</t>
+    <t>儿童色情旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%B7%A5%E4%BD%9C%E8%80%85</t>
@@ -2363,13 +2354,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85%E6%9B%B8%E5%88%8A</t>
   </si>
   <si>
-    <t>色情書刊</t>
+    <t>色情书刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>成人雜誌</t>
+    <t>成人杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E6%96%87%E5%AD%A6</t>
@@ -2381,7 +2372,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E8%89%B2%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>情色文學</t>
+    <t>情色文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85%E5%B0%8F%E8%AF%B4</t>
@@ -2399,49 +2390,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E5%8B%95%E7%95%AB</t>
   </si>
   <si>
-    <t>成人動畫</t>
+    <t>成人动画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>成人電影</t>
+    <t>成人电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>色情電影</t>
+    <t>色情电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>成人遊戲</t>
+    <t>成人游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>成人電子遊戲</t>
+    <t>成人电子游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E5%AE%AE%E5%9C%96</t>
   </si>
   <si>
-    <t>春宮圖</t>
+    <t>春宫图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E7%87%88%E5%8D%80</t>
   </si>
   <si>
-    <t>紅燈區</t>
+    <t>红灯区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%AB%E8%A1%A3%E8%88%9E%E4%BF%B1%E6%A8%82%E9%83%A8</t>
   </si>
   <si>
-    <t>脫衣舞俱樂部</t>
+    <t>脱衣舞俱乐部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Webcam_model</t>
@@ -2585,7 +2576,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AF%94</t>
   </si>
   <si>
-    <t>性別比</t>
+    <t>性别比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%84%E6%9C%9F%E5%AF%BF%E5%91%BD</t>
@@ -2621,25 +2612,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%B1%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>深層生態學</t>
+    <t>深层生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%AE%E9%A3%9F%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>粮食安全</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8D%B1%E6%9C%BA</t>
   </si>
   <si>
-    <t>水危机</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%B2%E6%81%AF%E5%9C%B0%E7%A0%B4%E5%A3%9E</t>
   </si>
   <si>
-    <t>棲息地破壞</t>
+    <t>栖息地破坏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%83%BD%E6%BA%90%E6%B6%88%E8%80%97%E9%87%8F</t>
@@ -2657,13 +2642,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8%E5%8A%9B</t>
   </si>
   <si>
-    <t>劳动力</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%B7%E5%BE%99</t>
   </si>
   <si>
-    <t>人口遷徙</t>
+    <t>人口迁徙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E9%9D%A9%E5%91%BD</t>
@@ -2693,13 +2675,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%88%90%E5%B9%B4%E4%BA%BA%E7%95%B6%E4%B8%AD%E8%89%BE%E6%BB%8B%E7%97%85%E6%94%9C%E5%B8%B6%E7%97%85%E6%AF%92%E8%80%85%E6%95%B8%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國成年人當中艾滋病攜帶病毒者數量列表</t>
+    <t>各国成年人当中艾滋病携带病毒者数量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%98%E5%AD%97%E7%8E%87</t>
   </si>
   <si>
-    <t>識字率</t>
+    <t>识字率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%90%A5%E5%85%BB%E4%B8%8D%E8%89%AF%E4%BA%BA%E5%8F%A3%E6%AF%94%E4%BE%8B%E5%88%97%E8%A1%A8</t>
@@ -2729,13 +2711,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%80%8B%E5%B0%8F%E5%B0%8F%E7%9A%84%E5%BB%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>一個小小的建議</t>
+    <t>一个小小的建议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%AB%96</t>
   </si>
   <si>
-    <t>人口論</t>
+    <t>人口论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E9%95%BF%E7%9A%84%E6%9E%81%E9%99%90</t>
@@ -2873,7 +2855,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%8B%E9%85%B8%E7%94%B2%E7%BE%A5%E5%AD%95%E9%85%AE</t>
   </si>
   <si>
-    <t>醋酸甲羥孕酮</t>
+    <t>醋酸甲羟孕酮</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nexplanon</t>
@@ -2927,7 +2909,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%B8%E5%8D%B5%E7%AE%A1%E7%B5%90%E7%B4%AE</t>
   </si>
   <si>
-    <t>輸卵管結紮</t>
+    <t>输卵管结紮</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Essure</t>
@@ -2981,7 +2963,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E9%A0%90%E6%9C%9F%E6%87%B7%E5%AD%95</t>
   </si>
   <si>
-    <t>非預期懷孕</t>
+    <t>非预期怀孕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%8A%E5%A8%A0%E8%AF%95%E9%AA%8C</t>
@@ -2993,7 +2975,7 @@
     <t>https://zh.wikipedia.org/wiki/HCG%E8%A9%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>HCG試驗</t>
+    <t>HCG试验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/3D_ultrasound</t>
@@ -3011,7 +2993,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%89%8D%E8%A8%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>產前診斷</t>
+    <t>产前诊断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8A%E6%B0%B4</t>
@@ -3029,13 +3011,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E5%AE%AE%E5%85%A7%E8%86%9C</t>
   </si>
   <si>
-    <t>子宮內膜</t>
+    <t>子宫内膜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%8E%E7%9B%A4</t>
   </si>
   <si>
-    <t>胎盤</t>
+    <t>胎盘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E5%89%8D%E5%8F%91%E8%82%B2</t>
@@ -3107,7 +3089,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8A%E8%86%9C%E7%A9%BF%E5%88%BA%E8%A1%93</t>
   </si>
   <si>
-    <t>羊膜穿刺術</t>
+    <t>羊膜穿刺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%92%E6%AF%9B%E5%8F%96%E6%A0%B7%E6%9C%AF</t>
@@ -3167,7 +3149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A5%E7%94%9F%E5%93%A1</t>
   </si>
   <si>
-    <t>接生員</t>
+    <t>接生员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Obstetrical_nursing</t>
@@ -3293,13 +3275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%BE%8C%E8%AD%B7%E7%90%86</t>
   </si>
   <si>
-    <t>產後護理</t>
+    <t>产后护理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E7%85%A7%E9%A1%A7</t>
   </si>
   <si>
-    <t>兒童照顧</t>
+    <t>儿童照顾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E5%A4%A9%E6%80%A7%E7%96%BE%E7%97%85</t>
@@ -6600,7 +6582,7 @@
         <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6626,10 +6608,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6655,10 +6637,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6684,10 +6666,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6713,10 +6695,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6742,10 +6724,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6771,10 +6753,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6800,10 +6782,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6829,10 +6811,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -6858,10 +6840,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6887,10 +6869,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6916,10 +6898,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -6945,10 +6927,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -6974,10 +6956,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7003,10 +6985,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7032,10 +7014,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7061,10 +7043,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -7090,10 +7072,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -7119,10 +7101,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>15</v>
@@ -7148,10 +7130,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>12</v>
@@ -7177,10 +7159,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7206,10 +7188,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>4</v>
@@ -7235,10 +7217,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>33</v>
@@ -7264,10 +7246,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7293,10 +7275,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7322,10 +7304,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>9</v>
@@ -7351,10 +7333,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -7380,10 +7362,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>52</v>
@@ -7409,10 +7391,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7467,10 +7449,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>252</v>
+      </c>
+      <c r="F131" t="s">
         <v>253</v>
-      </c>
-      <c r="F131" t="s">
-        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -7496,10 +7478,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>254</v>
+      </c>
+      <c r="F132" t="s">
         <v>255</v>
-      </c>
-      <c r="F132" t="s">
-        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -7525,10 +7507,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>256</v>
+      </c>
+      <c r="F133" t="s">
         <v>257</v>
-      </c>
-      <c r="F133" t="s">
-        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>6</v>
@@ -7554,10 +7536,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>258</v>
+      </c>
+      <c r="F134" t="s">
         <v>259</v>
-      </c>
-      <c r="F134" t="s">
-        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>6</v>
@@ -7583,10 +7565,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" t="s">
         <v>261</v>
-      </c>
-      <c r="F135" t="s">
-        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7612,10 +7594,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>262</v>
+      </c>
+      <c r="F136" t="s">
         <v>263</v>
-      </c>
-      <c r="F136" t="s">
-        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -7641,10 +7623,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>264</v>
+      </c>
+      <c r="F137" t="s">
         <v>265</v>
-      </c>
-      <c r="F137" t="s">
-        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7670,10 +7652,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>266</v>
+      </c>
+      <c r="F138" t="s">
         <v>267</v>
-      </c>
-      <c r="F138" t="s">
-        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -7699,10 +7681,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>268</v>
+      </c>
+      <c r="F139" t="s">
         <v>269</v>
-      </c>
-      <c r="F139" t="s">
-        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -7728,10 +7710,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" t="s">
         <v>271</v>
-      </c>
-      <c r="F140" t="s">
-        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7757,10 +7739,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>272</v>
+      </c>
+      <c r="F141" t="s">
         <v>273</v>
-      </c>
-      <c r="F141" t="s">
-        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7786,10 +7768,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>274</v>
+      </c>
+      <c r="F142" t="s">
         <v>275</v>
-      </c>
-      <c r="F142" t="s">
-        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7815,10 +7797,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>276</v>
+      </c>
+      <c r="F143" t="s">
         <v>277</v>
-      </c>
-      <c r="F143" t="s">
-        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -7844,10 +7826,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>278</v>
+      </c>
+      <c r="F144" t="s">
         <v>279</v>
-      </c>
-      <c r="F144" t="s">
-        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -7873,10 +7855,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>280</v>
+      </c>
+      <c r="F145" t="s">
         <v>281</v>
-      </c>
-      <c r="F145" t="s">
-        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7902,10 +7884,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>282</v>
+      </c>
+      <c r="F146" t="s">
         <v>283</v>
-      </c>
-      <c r="F146" t="s">
-        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7931,10 +7913,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>284</v>
+      </c>
+      <c r="F147" t="s">
         <v>285</v>
-      </c>
-      <c r="F147" t="s">
-        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7960,10 +7942,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>286</v>
+      </c>
+      <c r="F148" t="s">
         <v>287</v>
-      </c>
-      <c r="F148" t="s">
-        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7989,10 +7971,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>288</v>
+      </c>
+      <c r="F149" t="s">
         <v>289</v>
-      </c>
-      <c r="F149" t="s">
-        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8018,10 +8000,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>290</v>
+      </c>
+      <c r="F150" t="s">
         <v>291</v>
-      </c>
-      <c r="F150" t="s">
-        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8047,10 +8029,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>292</v>
+      </c>
+      <c r="F151" t="s">
         <v>293</v>
-      </c>
-      <c r="F151" t="s">
-        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8076,10 +8058,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>294</v>
+      </c>
+      <c r="F152" t="s">
         <v>295</v>
-      </c>
-      <c r="F152" t="s">
-        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -8105,10 +8087,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>296</v>
+      </c>
+      <c r="F153" t="s">
         <v>297</v>
-      </c>
-      <c r="F153" t="s">
-        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8134,10 +8116,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>298</v>
+      </c>
+      <c r="F154" t="s">
         <v>299</v>
-      </c>
-      <c r="F154" t="s">
-        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -8163,10 +8145,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>300</v>
+      </c>
+      <c r="F155" t="s">
         <v>301</v>
-      </c>
-      <c r="F155" t="s">
-        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8221,10 +8203,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>302</v>
+      </c>
+      <c r="F157" t="s">
         <v>303</v>
-      </c>
-      <c r="F157" t="s">
-        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -8250,10 +8232,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>304</v>
+      </c>
+      <c r="F158" t="s">
         <v>305</v>
-      </c>
-      <c r="F158" t="s">
-        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -8279,10 +8261,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>306</v>
+      </c>
+      <c r="F159" t="s">
         <v>307</v>
-      </c>
-      <c r="F159" t="s">
-        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8308,10 +8290,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>308</v>
+      </c>
+      <c r="F160" t="s">
         <v>309</v>
-      </c>
-      <c r="F160" t="s">
-        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8337,10 +8319,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>310</v>
+      </c>
+      <c r="F161" t="s">
         <v>311</v>
-      </c>
-      <c r="F161" t="s">
-        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8366,10 +8348,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>312</v>
+      </c>
+      <c r="F162" t="s">
         <v>313</v>
-      </c>
-      <c r="F162" t="s">
-        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>18</v>
@@ -8395,10 +8377,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>314</v>
+      </c>
+      <c r="F163" t="s">
         <v>315</v>
-      </c>
-      <c r="F163" t="s">
-        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8424,10 +8406,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>316</v>
+      </c>
+      <c r="F164" t="s">
         <v>317</v>
-      </c>
-      <c r="F164" t="s">
-        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -8453,10 +8435,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>318</v>
+      </c>
+      <c r="F165" t="s">
         <v>319</v>
-      </c>
-      <c r="F165" t="s">
-        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -8482,10 +8464,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>320</v>
+      </c>
+      <c r="F166" t="s">
         <v>321</v>
-      </c>
-      <c r="F166" t="s">
-        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8511,10 +8493,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>322</v>
+      </c>
+      <c r="F167" t="s">
         <v>323</v>
-      </c>
-      <c r="F167" t="s">
-        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8540,10 +8522,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>324</v>
+      </c>
+      <c r="F168" t="s">
         <v>325</v>
-      </c>
-      <c r="F168" t="s">
-        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -8569,10 +8551,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>326</v>
+      </c>
+      <c r="F169" t="s">
         <v>327</v>
-      </c>
-      <c r="F169" t="s">
-        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8598,10 +8580,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>328</v>
+      </c>
+      <c r="F170" t="s">
         <v>329</v>
-      </c>
-      <c r="F170" t="s">
-        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8627,10 +8609,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>330</v>
+      </c>
+      <c r="F171" t="s">
         <v>331</v>
-      </c>
-      <c r="F171" t="s">
-        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8656,10 +8638,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>332</v>
+      </c>
+      <c r="F172" t="s">
         <v>333</v>
-      </c>
-      <c r="F172" t="s">
-        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -8685,10 +8667,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>334</v>
+      </c>
+      <c r="F173" t="s">
         <v>335</v>
-      </c>
-      <c r="F173" t="s">
-        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8714,10 +8696,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" t="s">
         <v>337</v>
-      </c>
-      <c r="F174" t="s">
-        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -8743,10 +8725,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>338</v>
+      </c>
+      <c r="F175" t="s">
         <v>339</v>
-      </c>
-      <c r="F175" t="s">
-        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8772,10 +8754,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>340</v>
+      </c>
+      <c r="F176" t="s">
         <v>341</v>
-      </c>
-      <c r="F176" t="s">
-        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -8801,10 +8783,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>10</v>
       </c>
       <c r="G177" t="n">
         <v>5</v>
@@ -8830,10 +8812,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>100</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8859,10 +8841,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8888,10 +8870,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G180" t="n">
         <v>10</v>
@@ -8917,10 +8899,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8946,10 +8928,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8975,10 +8957,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9004,10 +8986,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9033,10 +9015,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -9062,10 +9044,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9091,10 +9073,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9120,10 +9102,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -9149,10 +9131,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G189" t="n">
         <v>35</v>
@@ -9178,10 +9160,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9207,10 +9189,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -9236,10 +9218,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9265,10 +9247,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9294,10 +9276,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9323,10 +9305,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9352,10 +9334,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9381,10 +9363,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9410,10 +9392,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9439,10 +9421,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9468,10 +9450,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9497,10 +9479,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9526,10 +9508,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9555,10 +9537,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9584,10 +9566,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9613,10 +9595,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9642,10 +9624,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9671,10 +9653,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9700,10 +9682,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9729,10 +9711,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9758,10 +9740,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9787,10 +9769,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9816,10 +9798,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9845,10 +9827,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9874,10 +9856,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9903,10 +9885,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9932,10 +9914,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9961,10 +9943,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9990,10 +9972,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -10019,10 +10001,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G219" t="n">
         <v>4</v>
@@ -10048,10 +10030,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10077,10 +10059,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10106,10 +10088,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10135,13 +10117,13 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -10164,10 +10146,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10193,10 +10175,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10222,10 +10204,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10251,10 +10233,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10280,10 +10262,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10309,10 +10291,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10338,10 +10320,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10367,10 +10349,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10396,10 +10378,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10425,10 +10407,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10454,10 +10436,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10483,10 +10465,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10512,10 +10494,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10541,10 +10523,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10570,10 +10552,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10599,10 +10581,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10628,10 +10610,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10657,10 +10639,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10686,10 +10668,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10715,10 +10697,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10744,10 +10726,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10773,10 +10755,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10802,10 +10784,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10831,10 +10813,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10860,10 +10842,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10889,10 +10871,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G249" t="n">
         <v>244</v>
@@ -10918,10 +10900,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -10947,10 +10929,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G251" t="n">
         <v>8</v>
@@ -10976,10 +10958,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G252" t="n">
         <v>46</v>
@@ -11005,10 +10987,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G253" t="n">
         <v>24</v>
@@ -11034,10 +11016,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11063,10 +11045,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -11092,10 +11074,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11121,10 +11103,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G257" t="n">
         <v>8</v>
@@ -11150,10 +11132,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G258" t="n">
         <v>10</v>
@@ -11179,10 +11161,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G259" t="n">
         <v>3</v>
@@ -11208,10 +11190,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -11237,10 +11219,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G261" t="n">
         <v>6</v>
@@ -11266,10 +11248,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11295,10 +11277,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11324,10 +11306,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -11353,10 +11335,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11382,10 +11364,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11411,10 +11393,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -11440,10 +11422,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -11469,10 +11451,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11498,10 +11480,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11527,10 +11509,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11556,10 +11538,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11585,10 +11567,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11614,10 +11596,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11643,10 +11625,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G275" t="n">
         <v>10</v>
@@ -11672,10 +11654,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G276" t="n">
         <v>12</v>
@@ -11701,10 +11683,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11730,10 +11712,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11759,10 +11741,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11817,10 +11799,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F281" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G281" t="n">
         <v>3</v>
@@ -11846,10 +11828,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F282" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -11875,10 +11857,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F283" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11904,10 +11886,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F284" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11933,10 +11915,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F285" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11962,10 +11944,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F286" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11991,10 +11973,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F287" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12020,10 +12002,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F288" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -12049,10 +12031,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F289" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12078,10 +12060,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F290" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12107,10 +12089,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F291" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12136,10 +12118,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F292" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12165,10 +12147,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F293" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12194,10 +12176,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F294" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12223,10 +12205,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F295" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12252,10 +12234,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F296" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12281,10 +12263,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F297" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12310,10 +12292,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F298" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12339,10 +12321,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F299" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12368,10 +12350,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F300" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12397,10 +12379,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F301" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12426,10 +12408,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F302" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12455,10 +12437,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F303" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12484,10 +12466,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F304" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12513,10 +12495,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F305" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12542,10 +12524,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F306" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12571,10 +12553,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F307" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12600,10 +12582,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F308" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12629,10 +12611,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F309" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12658,10 +12640,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F310" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12687,10 +12669,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F311" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12716,10 +12698,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F312" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12745,10 +12727,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F313" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12774,10 +12756,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F314" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G314" t="n">
         <v>5</v>
@@ -12803,10 +12785,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F315" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12832,10 +12814,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F316" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12861,10 +12843,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F317" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12890,10 +12872,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F318" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12919,10 +12901,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F319" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12948,10 +12930,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F320" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12977,10 +12959,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13006,10 +12988,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F322" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G322" t="n">
         <v>8</v>
@@ -13035,10 +13017,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F323" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13064,10 +13046,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F324" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13093,10 +13075,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F325" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13122,10 +13104,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F326" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13151,10 +13133,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F327" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13180,10 +13162,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F328" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13209,10 +13191,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F329" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13238,10 +13220,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F330" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13267,10 +13249,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F331" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -13296,10 +13278,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F332" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13325,10 +13307,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F333" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13354,10 +13336,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F334" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13383,10 +13365,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F335" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13412,10 +13394,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F336" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13441,10 +13423,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F337" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13470,10 +13452,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F338" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G338" t="n">
         <v>3</v>
@@ -13499,10 +13481,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F339" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13528,10 +13510,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F340" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13557,10 +13539,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F341" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13586,10 +13568,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F342" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13615,10 +13597,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F343" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G343" t="n">
         <v>22</v>
@@ -13644,10 +13626,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F344" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13673,10 +13655,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F345" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13702,10 +13684,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F346" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13731,10 +13713,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F347" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G347" t="n">
         <v>3</v>
@@ -13760,10 +13742,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F348" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13789,10 +13771,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F349" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13818,10 +13800,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F350" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13847,10 +13829,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F351" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13876,10 +13858,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F352" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13905,10 +13887,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F353" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13934,10 +13916,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F354" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13963,10 +13945,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F355" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13992,10 +13974,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F356" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14021,10 +14003,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F357" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14050,10 +14032,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F358" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14079,10 +14061,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F359" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14108,10 +14090,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F360" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14137,10 +14119,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F361" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14166,10 +14148,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F362" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14195,10 +14177,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F363" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14224,10 +14206,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F364" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14253,10 +14235,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F365" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14282,10 +14264,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F366" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14311,10 +14293,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F367" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14340,10 +14322,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F368" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14369,10 +14351,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F369" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14398,10 +14380,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F370" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14427,10 +14409,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F371" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14456,10 +14438,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F372" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14485,10 +14467,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F373" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14514,10 +14496,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F374" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14543,10 +14525,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F375" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14572,10 +14554,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F376" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14601,10 +14583,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F377" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14630,10 +14612,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F378" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14659,10 +14641,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F379" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14688,10 +14670,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F380" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14717,10 +14699,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F381" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14746,10 +14728,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F382" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14775,10 +14757,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F383" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G383" t="n">
         <v>3</v>
@@ -14804,10 +14786,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F384" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G384" t="n">
         <v>6</v>
@@ -14833,10 +14815,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F385" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14862,10 +14844,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F386" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14891,10 +14873,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F387" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14920,10 +14902,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F388" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14949,10 +14931,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F389" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14978,10 +14960,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F390" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15007,10 +14989,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F391" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15036,10 +15018,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F392" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G392" t="n">
         <v>3</v>
@@ -15065,10 +15047,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F393" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15094,10 +15076,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F394" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15123,10 +15105,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F395" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15152,10 +15134,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F396" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15181,10 +15163,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F397" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15210,10 +15192,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F398" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15239,10 +15221,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F399" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15268,10 +15250,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F400" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15297,10 +15279,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F401" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15326,10 +15308,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F402" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15355,10 +15337,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F403" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15384,10 +15366,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F404" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15413,10 +15395,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F405" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15442,10 +15424,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F406" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15471,10 +15453,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F407" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15500,10 +15482,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F408" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15529,10 +15511,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F409" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15558,10 +15540,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F410" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15587,10 +15569,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F411" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15616,10 +15598,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F412" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15645,10 +15627,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F413" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15674,10 +15656,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F414" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15703,10 +15685,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="F415" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15732,10 +15714,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F416" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15761,10 +15743,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="F417" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15790,10 +15772,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F418" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15819,10 +15801,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F419" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15848,10 +15830,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F420" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15877,10 +15859,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F421" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15906,10 +15888,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F422" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G422" t="n">
         <v>3</v>
@@ -15935,10 +15917,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F423" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15964,10 +15946,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="F424" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15993,10 +15975,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F425" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16022,10 +16004,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F426" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16051,10 +16033,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F427" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16080,10 +16062,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F428" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -16109,10 +16091,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F429" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G429" t="n">
         <v>2</v>
@@ -16138,10 +16120,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F430" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16167,10 +16149,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F431" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16196,10 +16178,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F432" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G432" t="n">
         <v>2</v>
@@ -16225,10 +16207,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F433" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G433" t="n">
         <v>2</v>
@@ -16254,10 +16236,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F434" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G434" t="n">
         <v>4</v>
@@ -16283,10 +16265,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F435" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16312,10 +16294,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F436" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="G436" t="n">
         <v>2</v>
@@ -16341,10 +16323,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F437" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -16370,10 +16352,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F438" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -16399,10 +16381,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F439" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16428,10 +16410,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F440" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16457,10 +16439,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F441" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16486,10 +16468,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="F442" t="s">
-        <v>870</v>
+        <v>385</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16515,10 +16497,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F443" t="s">
-        <v>872</v>
+        <v>397</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16544,10 +16526,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F444" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16573,10 +16555,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F445" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16602,10 +16584,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F446" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16631,10 +16613,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F447" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16660,10 +16642,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F448" t="s">
-        <v>880</v>
+        <v>72</v>
       </c>
       <c r="G448" t="n">
         <v>2</v>
@@ -16689,10 +16671,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="F449" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16718,10 +16700,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="F450" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16747,10 +16729,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="F451" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16776,10 +16758,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="F452" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16805,10 +16787,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="F453" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16834,10 +16816,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="F454" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="G454" t="n">
         <v>2</v>
@@ -16863,10 +16845,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="F455" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16892,10 +16874,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="F456" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16921,10 +16903,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="F457" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16950,10 +16932,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="F458" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16979,10 +16961,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F459" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17008,10 +16990,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="F460" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17037,10 +17019,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="F461" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17066,10 +17048,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F462" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17095,10 +17077,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="F463" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17124,10 +17106,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="F464" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17153,10 +17135,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="F465" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17182,10 +17164,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="F466" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17211,10 +17193,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F467" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17240,10 +17222,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="F468" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17269,10 +17251,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="F469" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17298,10 +17280,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="F470" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="G470" t="n">
         <v>2</v>
@@ -17327,10 +17309,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="F471" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="G471" t="n">
         <v>3</v>
@@ -17356,10 +17338,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="F472" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17472,10 +17454,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="F476" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17501,10 +17483,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="F477" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17588,10 +17570,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="F480" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17617,10 +17599,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="F481" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17646,10 +17628,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="F482" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="G482" t="n">
         <v>2</v>
@@ -17675,10 +17657,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="F483" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="G483" t="n">
         <v>3</v>
@@ -17704,10 +17686,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="F484" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17733,10 +17715,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="F485" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17762,10 +17744,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="F486" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="G486" t="n">
         <v>2</v>
@@ -17791,10 +17773,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="F487" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17849,10 +17831,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="F489" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="G489" t="n">
         <v>2</v>
@@ -17878,10 +17860,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="F490" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17907,10 +17889,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="F491" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="G491" t="n">
         <v>2</v>
@@ -17936,10 +17918,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="F492" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="G492" t="n">
         <v>2</v>
@@ -17965,10 +17947,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="F493" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17994,10 +17976,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="F494" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="G494" t="n">
         <v>2</v>
@@ -18023,10 +18005,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="F495" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="G495" t="n">
         <v>3</v>
@@ -18081,10 +18063,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="F497" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18110,10 +18092,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="F498" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18139,10 +18121,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F499" t="s">
-        <v>346</v>
+        <v>100</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18168,10 +18150,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="F500" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18197,10 +18179,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="F501" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18226,10 +18208,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="F502" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="G502" t="n">
         <v>3</v>
@@ -18284,10 +18266,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="F504" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="G504" t="n">
         <v>2</v>
@@ -18313,10 +18295,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="F505" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="G505" t="n">
         <v>18</v>
@@ -18342,10 +18324,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="F506" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18371,10 +18353,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="F507" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18400,10 +18382,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="F508" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18429,10 +18411,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="F509" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18458,10 +18440,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="F510" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18487,10 +18469,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="F511" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="G511" t="n">
         <v>2</v>
@@ -18516,10 +18498,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F512" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18545,10 +18527,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="F513" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18574,10 +18556,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="F514" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18603,10 +18585,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="F515" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18632,10 +18614,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F516" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18661,10 +18643,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="F517" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18690,10 +18672,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="F518" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="G518" t="n">
         <v>2</v>
@@ -18719,10 +18701,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F519" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18748,10 +18730,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="F520" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18777,10 +18759,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F521" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="G521" t="n">
         <v>2</v>
@@ -18806,10 +18788,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F522" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18835,10 +18817,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F523" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18864,10 +18846,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="F524" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18893,10 +18875,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="F525" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18922,10 +18904,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F526" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18951,10 +18933,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="F527" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18980,10 +18962,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="F528" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19009,10 +18991,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="F529" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19038,10 +19020,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="F530" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19067,10 +19049,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="F531" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19096,10 +19078,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="F532" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19125,10 +19107,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="F533" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19154,10 +19136,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="F534" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19183,10 +19165,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="F535" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19212,10 +19194,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="F536" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19241,10 +19223,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="F537" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19270,10 +19252,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="F538" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19299,10 +19281,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="F539" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19328,10 +19310,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F540" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19357,10 +19339,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="F541" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19386,10 +19368,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="F542" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19415,10 +19397,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="F543" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19444,10 +19426,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="F544" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19473,10 +19455,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="F545" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="G545" t="n">
         <v>4</v>
@@ -19502,10 +19484,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="F546" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19531,10 +19513,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="F547" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19560,10 +19542,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="F548" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19589,10 +19571,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="F549" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19618,10 +19600,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="F550" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="G550" t="n">
         <v>2</v>
@@ -19647,10 +19629,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="F551" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19676,10 +19658,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="F552" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19705,10 +19687,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="F553" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G553" t="n">
         <v>2</v>
@@ -19734,10 +19716,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="F554" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19763,10 +19745,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="F555" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19792,10 +19774,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="F556" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19821,10 +19803,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="F557" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19850,10 +19832,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="F558" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19879,10 +19861,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="F559" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19908,10 +19890,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F560" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19937,10 +19919,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F561" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -19966,10 +19948,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F562" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -19995,10 +19977,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="F563" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="G563" t="n">
         <v>6</v>
@@ -20024,10 +20006,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="F564" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20053,10 +20035,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="F565" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20082,10 +20064,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F566" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20111,10 +20093,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F567" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20140,10 +20122,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F568" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20169,10 +20151,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="F569" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20198,10 +20180,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="F570" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="G570" t="n">
         <v>2</v>
